--- a/biology/Médecine/Couronne_dentaire/Couronne_dentaire.xlsx
+++ b/biology/Médecine/Couronne_dentaire/Couronne_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La couronne d'une dent (ou couronne dentaire) est la partie d'une dent qui est recouverte d'émail dentaire.La partie visible au dessus ou en dessous des gencives est nommée couronne clinique de la dent.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La couronne dentaire est constituée d'un corps de dentine recouvert d'émail dentaire.
 Elle est séparée de la racine de la dent par le col de la dent.
@@ -556,7 +570,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couronne artificielle peut être utilisée en remplacement d'une couronne détruite.
 </t>
